--- a/build/website/StructureDefinition-cibmtr-patient.xlsx
+++ b/build/website/StructureDefinition-cibmtr-patient.xlsx
@@ -4259,7 +4259,7 @@
       </c>
       <c r="D17" s="2"/>
       <c r="E17" t="s" s="2">
-        <v>42</v>
+        <v>51</v>
       </c>
       <c r="F17" t="s" s="2">
         <v>51</v>
